--- a/biology/Zoologie/Elephantoidea/Elephantoidea.xlsx
+++ b/biology/Zoologie/Elephantoidea/Elephantoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Elephantoidea sont une super-famille de mammifères qui contient les éléphants ainsi que leurs plus proches parents disparus.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La super-famille des Elephantoidea a été décrite en 1821 par le zoologiste britannique John Edward Gray (1800-1875)[1],[2] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La super-famille des Elephantoidea a été décrite en 1821 par le zoologiste britannique John Edward Gray (1800-1875), 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la Paleobiology Database en 2023, 1 357 collections de fossiles sont référencées de l'Oligocène supérieur à aujourd'hui, soit de 28,4 à 0 Ma avant notre ère[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la Paleobiology Database en 2023, 1 357 collections de fossiles sont référencées de l'Oligocène supérieur à aujourd'hui, soit de 28,4 à 0 Ma avant notre ère.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des genres d'éléphants ainsi que d'autres familles proches, d'après les caractéristiques de leur os hyoïde, selon Shoshani et al. (2007)[3], les caractéristiques anatomiques du squelette, selon Cozzuol et al. 2012[4], et les caractéristiques génétiques selon Meyer et al. 2017[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des genres d'éléphants ainsi que d'autres familles proches, d'après les caractéristiques de leur os hyoïde, selon Shoshani et al. (2007), les caractéristiques anatomiques du squelette, selon Cozzuol et al. 2012, et les caractéristiques génétiques selon Meyer et al. 2017 :
 </t>
         </is>
       </c>
